--- a/Week_01/思维导图总结/预备方法/方法日志.xlsx
+++ b/Week_01/思维导图总结/预备方法/方法日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianfeng\Desktop\我的算法课\思维导图\预备方法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianfeng\Desktop\我的算法课\思维导图总结\预备方法\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>题目列表</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -201,47 +201,91 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>专项突破题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两数之和</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛最多水的容器；移动零；爬楼梯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三数之和 反转链表 两两交换链表中的节点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母异位词分组 有效的字母异位词</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N 叉树的前序遍历 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N 叉树的层序遍历 丑数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>专项突破题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小昊算法表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>两数之和</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛最多水的容器；移动零；爬楼梯</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>三数之和 反转链表 两两交换链表中的节点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母异位词分组 有效的字母异位词</t>
+    <t>J</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小的 k 个数  前 K 个高频元素</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口最大值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号生成 翻转二叉树 验证二叉搜索树</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最小深度 二叉树的最大深度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬水找零 买卖股票的最佳时机 II  分发饼干 模拟行走机器人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>从前序与中序遍历序列构造二叉树 二叉树的最近公共祖先</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,24 +361,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,13 +394,8 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,23 +418,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,11 +438,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,17 +455,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,18 +467,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
     <cellStyle name="输出" xfId="4" builtinId="21"/>
     <cellStyle name="着色 1" xfId="5" builtinId="29"/>
-    <cellStyle name="注释" xfId="6" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,31 +755,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>21</v>
@@ -804,30 +802,30 @@
       <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="V1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2">
         <v>3</v>
       </c>
@@ -855,26 +853,26 @@
       <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3">
         <v>9.15</v>
       </c>
@@ -902,30 +900,30 @@
       <c r="U3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>17</v>
@@ -951,27 +949,27 @@
       <c r="U4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+      <c r="V4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5">
         <v>9.1</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -998,30 +996,30 @@
       <c r="U5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>17</v>
@@ -1033,26 +1031,26 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+      <c r="V6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7">
         <v>9.14</v>
       </c>
@@ -1066,245 +1064,305 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9">
         <v>9.16</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11">
+        <v>9.18</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13">
+        <v>9.19</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15">
+        <v>9.19</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1315,18 +1373,17 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="M21">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1337,17 +1394,12 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1359,18 +1411,17 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
+      <c r="M23">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1381,17 +1432,12 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1403,18 +1449,17 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="M25">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1425,17 +1470,12 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1447,17 +1487,14 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1469,22 +1506,34 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="36">
+    <mergeCell ref="N8:U12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B10:L11"/>
+    <mergeCell ref="B16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="B12:L13"/>
     <mergeCell ref="B14:L15"/>
-    <mergeCell ref="B16:L17"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="V1:Y1"/>
@@ -1492,22 +1541,24 @@
     <mergeCell ref="V4:Y5"/>
     <mergeCell ref="V6:Y7"/>
     <mergeCell ref="B6:L7"/>
-    <mergeCell ref="B21:U28"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="B2:L3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:L5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="N8:U12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B10:L11"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:L27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:L29"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:L21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:L25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
